--- a/public/sheets/_u1uploads.xlsx
+++ b/public/sheets/_u1uploads.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Bank Name</t>
   </si>
@@ -122,10 +122,7 @@
     <t>0033033067</t>
   </si>
   <si>
-    <t>0027320995</t>
-  </si>
-  <si>
-    <t>1111111111</t>
+    <t>0033033018</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,35 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -553,12 +578,12 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
@@ -590,19 +615,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
@@ -1084,8 +1105,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B104">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">

--- a/public/sheets/_u1uploads.xlsx
+++ b/public/sheets/_u1uploads.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Bank Name</t>
   </si>
@@ -122,7 +122,10 @@
     <t>0033033067</t>
   </si>
   <si>
-    <t>0033033018</t>
+    <t>0027320995</t>
+  </si>
+  <si>
+    <t>1111111111</t>
   </si>
 </sst>
 </file>
@@ -222,35 +225,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -578,12 +553,12 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
@@ -615,15 +590,19 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
@@ -1105,8 +1084,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B104">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">

--- a/public/sheets/_u1uploads.xlsx
+++ b/public/sheets/_u1uploads.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oviaesud\OneDrive - World Health Organization\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491507B-EBF5-4EFC-9211-2C81984D8604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7464B39-C132-4EDF-B90F-E040553FF310}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
   <si>
     <t>Bank Name</t>
   </si>
@@ -119,17 +125,74 @@
     <t>Zenith Bank</t>
   </si>
   <si>
-    <t>0033033067</t>
-  </si>
-  <si>
-    <t>0033033018</t>
+    <t>3143563245</t>
+  </si>
+  <si>
+    <t>3111623290</t>
+  </si>
+  <si>
+    <t>3129763579</t>
+  </si>
+  <si>
+    <t>0026535701</t>
+  </si>
+  <si>
+    <t>0039355336</t>
+  </si>
+  <si>
+    <t>3108847465</t>
+  </si>
+  <si>
+    <t>3110564666</t>
+  </si>
+  <si>
+    <t>0036560223</t>
+  </si>
+  <si>
+    <t>0158417010</t>
+  </si>
+  <si>
+    <t>0026519509</t>
+  </si>
+  <si>
+    <t>2022650971</t>
+  </si>
+  <si>
+    <t>2016429356</t>
+  </si>
+  <si>
+    <t>3071857555</t>
+  </si>
+  <si>
+    <t>3154858789</t>
+  </si>
+  <si>
+    <t>0036528669</t>
+  </si>
+  <si>
+    <t>3034727901</t>
+  </si>
+  <si>
+    <t>0134827150</t>
+  </si>
+  <si>
+    <t>0036574202</t>
+  </si>
+  <si>
+    <t>2116926278</t>
+  </si>
+  <si>
+    <t>2116926279</t>
+  </si>
+  <si>
+    <t>0036574255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +212,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -217,12 +288,85 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -240,7 +384,231 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -321,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,7 +741,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,31 +935,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230459E2-98E6-40EF-8443-6A50FB3FC8A7}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,511 +973,923 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q31" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Q34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Q38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="Q39" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="Q41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="Q42" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="Q43" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="Q44" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="Q45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q46" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="Q47" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="Q48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="Q49" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q51" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q52" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q53" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q54" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B104">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B1 B21:B22 B86:B104">
+    <cfRule type="duplicateValues" dxfId="47" priority="47" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43">
+    <cfRule type="duplicateValues" dxfId="35" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B41">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B64">
+    <cfRule type="duplicateValues" dxfId="23" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B62">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B85">
+    <cfRule type="duplicateValues" dxfId="11" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B83">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{CE80B466-06FA-46EE-B416-585341C397DD}">
       <formula1>$Q$29:$Q$54</formula1>
     </dataValidation>
   </dataValidations>
